--- a/biology/Médecine/Max_Fourestier/Max_Fourestier.xlsx
+++ b/biology/Médecine/Max_Fourestier/Max_Fourestier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max (Pierre Paul Auguste) Fourestier, né le 30 octobre 1907[1] à Lunas et mort le 11 mars 1986, est un médecin, Commandeur de la Légion d'honneur et décoré de la croix de guerre 1939-1945.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max (Pierre Paul Auguste) Fourestier, né le 30 octobre 1907 à Lunas et mort le 11 mars 1986, est un médecin, Commandeur de la Légion d'honneur et décoré de la croix de guerre 1939-1945.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève au collège Saint-Gabriel de Saint-Affrique dans l'Aveyron, il fit ses études de médecine à Paris et devient médecin à 29 ans en 1936.
 Il fut médecin chef du dispensaire de Montreuil puis médecin des écoles à Vanves puis du service de pneumologie à l'hôpital de Nanterre (une école de Vanves et l'hôpital de Nanterre portent son nom aujourd'hui).
-En 1953, médecin de l'hygiène scolaire, il crée avec Maurice David Directeur de l'enseignement de la Seine la première classe de neige, véritable innovation pédagogique[2], aujourd'hui très répandue dans de nombreuses écoles françaises.
-Max Fourestier a inventé avec Jacques Claude Vulmière et Joseph Amedée Gladu [3] qui était ingénieur à l'Institut National d'Optique, des endoscopes universels. Il a ainsi réalisé les premiers enregistrements diagnostics photo-télé-cinématographique au sein de l'hôpital qui porte depuis son nom.
+En 1953, médecin de l'hygiène scolaire, il crée avec Maurice David Directeur de l'enseignement de la Seine la première classe de neige, véritable innovation pédagogique, aujourd'hui très répandue dans de nombreuses écoles françaises.
+Max Fourestier a inventé avec Jacques Claude Vulmière et Joseph Amedée Gladu  qui était ingénieur à l'Institut National d'Optique, des endoscopes universels. Il a ainsi réalisé les premiers enregistrements diagnostics photo-télé-cinématographique au sein de l'hôpital qui porte depuis son nom.
 Il est enterré, à sa demande dans le cimetière de l'hôpital  où il a exercé.. 
 </t>
         </is>
